--- a/03_Data_Analysis/Sprint_05/Unidad_02_Procesado_Datos_Internos_Ficheros/02_Ejercicios_Workout/data/df_eventos_historicos.xlsx
+++ b/03_Data_Analysis/Sprint_05/Unidad_02_Procesado_Datos_Internos_Ficheros/02_Ejercicios_Workout/data/df_eventos_historicos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edici\PRODUCCION\Analisis_de_Datos\Sprint_05\Unidad_02_Acceso_y_Procesado_de_Datos_Internos__Ficheros\Assesments\Prog_Guiada\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Curso_The_Bridge\Bootcamp\DS-Online_DanielR\03_Data_Analysis\Sprint_05\Unidad_02_Procesado_Datos_Internos_Ficheros\02_Ejercicios_Workout\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B90CBD-1782-4682-94C1-3B898F5A973C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8997409-A391-4247-B243-82AB048D7D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -551,6 +551,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
